--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_pet_empty.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_pet_empty.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>ContentType</t>
+  </si>
+  <si>
+    <t>RequestHeaders</t>
   </si>
   <si>
     <t>RequestFile</t>
@@ -121,12 +124,40 @@
   <si>
     <t>Id=[petId];petName=doggie</t>
   </si>
+  <si>
+    <t>PetGet-Test</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata,Arial"/>
+        <b/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://live.virtualandemo.com/api/pets/findByTags?tags=</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Inconsolata,Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>[tag]</t>
+    </r>
+  </si>
+  <si>
+    <t>test=Bearer [tag]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -149,8 +180,18 @@
       <color rgb="FF1155CC"/>
       <name val="Inconsolata"/>
     </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Inconsolata"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +204,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor rgb="FFB7E1CD"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -170,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -185,6 +232,24 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,10 +480,10 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="18.14"/>
     <col customWidth="1" min="3" max="3" width="176.14"/>
-    <col customWidth="1" min="6" max="6" width="24.71"/>
-    <col customWidth="1" min="7" max="7" width="23.29"/>
-    <col customWidth="1" min="11" max="11" width="49.29"/>
-    <col customWidth="1" min="12" max="12" width="24.29"/>
+    <col customWidth="1" min="7" max="7" width="24.71"/>
+    <col customWidth="1" min="8" max="8" width="23.29"/>
+    <col customWidth="1" min="12" max="12" width="49.29"/>
+    <col customWidth="1" min="13" max="13" width="24.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -434,7 +499,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -443,13 +508,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -458,87 +523,143 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
+      <c r="A2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1">
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3">
         <v>200.0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1">
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1">
         <v>200.0</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="10">
+        <v>200.0</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2">
+  <conditionalFormatting sqref="G2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(F2))&gt;0</formula>
+      <formula>LEN(TRIM(G2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
     <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_pet_empty.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_pet_empty.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Extra\Conflict Resolving\idaithalam\samples\idaithalam-excel-apitesting\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930523F3-68FA-4A0C-A05D-E8186437D2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="API-Testing" sheetId="1" r:id="rId4"/>
+    <sheet name="API-Testing" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -66,21 +75,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Inconsolata"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>https://live.virtualandemo.com/api/pets/findByTags?tags=</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Inconsolata"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>[tag]</t>
     </r>
@@ -130,65 +139,98 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Inconsolata,Arial"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>https://live.virtualandemo.com/api/pets/findByTags?tags=</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Inconsolata,Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>[tag]</t>
     </r>
   </si>
   <si>
     <t>test=Bearer [tag]</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF008000"/>
       <name val="Consolas"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Inconsolata"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Inconsolata"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Inconsolata,Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata,Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -196,7 +238,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -212,70 +254,59 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -465,178 +496,194 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="176.14"/>
-    <col customWidth="1" min="7" max="7" width="24.71"/>
-    <col customWidth="1" min="8" max="8" width="23.29"/>
-    <col customWidth="1" min="12" max="12" width="49.29"/>
-    <col customWidth="1" min="13" max="13" width="24.29"/>
+    <col min="2" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="176.109375" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="13" max="13" width="49.33203125" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="3">
+        <v>200</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="1">
+        <v>200</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="10">
-        <v>200.0</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="10">
+        <v>200</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -648,18 +695,19 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2">
+  <conditionalFormatting sqref="H2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G2))&gt;0</formula>
+      <formula>LEN(TRIM(H2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>